--- a/Localization/frutiful-2024-06-28.xlsx
+++ b/Localization/frutiful-2024-06-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87e5f9c5ad6eff25/デスクトップ/Documents/ContentHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="13_ncr:1_{4DF8F31E-0DF7-D145-9509-2D611F7D64DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5F9DD05-22B9-234F-8DC7-35362EAC4CDA}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="13_ncr:1_{4DF8F31E-0DF7-D145-9509-2D611F7D64DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99546889-A8BF-5940-BC4B-29F50C105319}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1380" windowWidth="31100" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="4720" windowWidth="31100" windowHeight="17140" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M.Localization.Entry" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="2151">
   <si>
     <t>id</t>
   </si>
@@ -5900,9 +5900,6 @@
     <t>StateMachineMChiliPublicationDetail</t>
   </si>
   <si>
-    <t>State flow mchilipublication details</t>
-  </si>
-  <si>
     <t>CHReportingDashboard</t>
   </si>
   <si>
@@ -6447,13 +6444,139 @@
   </si>
   <si>
     <t>M.Automation.Route.M.Chili.Publication.ChiliTemplateReview.Done.Approve</t>
+  </si>
+  <si>
+    <t>テンプレートからのキャンペーン作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mpcmcatalog </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詳細のフロー状態</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レポーティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品の種類</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイヒン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンファレンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント作成ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション詳細ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピーカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント詳細ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピーカー詳細ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピーカー作成ページ</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">サクセイページ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション作成ページ</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルのセッション一括編集</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンドル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンドル詳細ページ</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ショウサイページ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンドル作成ページ</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InDesign ジョブ詳細</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illustrator ジョブ詳細</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Photoshop ジョブ詳細</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>State flow mchilipublication details</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mchilipublication 詳細のフロー状態</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レポーティングダッシュボード</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -6464,6 +6587,13 @@
       <sz val="6"/>
       <name val="Tsukushi A Round Gothic Bold"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -6487,8 +6617,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6504,6 +6635,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6805,7 +6940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6A78C9-395D-406B-8C91-63A1C8C967C0}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -16229,10 +16364,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B64F06-8666-4100-BACF-F0335FE9DB3D}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -16248,188 +16383,257 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2" t="s">
         <v>1917</v>
       </c>
       <c r="B2" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="1" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14">
       <c r="A3" t="s">
         <v>1928</v>
       </c>
       <c r="B3" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14">
       <c r="A4" t="s">
         <v>259</v>
       </c>
       <c r="B4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="1" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14">
       <c r="A5" t="s">
         <v>1930</v>
       </c>
       <c r="B5" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14">
       <c r="A6" t="s">
         <v>1932</v>
       </c>
       <c r="B6" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14">
       <c r="A7" t="s">
         <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14">
       <c r="A8" t="s">
         <v>1933</v>
       </c>
       <c r="B8" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="1" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14">
       <c r="A9" t="s">
         <v>515</v>
       </c>
       <c r="B9" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="1" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14">
       <c r="A10" t="s">
         <v>1934</v>
       </c>
       <c r="B10" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14">
       <c r="A11" t="s">
         <v>564</v>
       </c>
       <c r="B11" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14">
       <c r="A12" t="s">
         <v>1935</v>
       </c>
       <c r="B12" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14">
       <c r="A13" t="s">
         <v>1936</v>
       </c>
       <c r="B13" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14">
       <c r="A14" t="s">
         <v>1937</v>
       </c>
       <c r="B14" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14">
       <c r="A15" t="s">
         <v>1938</v>
       </c>
       <c r="B15" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14">
       <c r="A16" t="s">
         <v>1939</v>
       </c>
       <c r="B16" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14">
       <c r="A17" t="s">
         <v>328</v>
       </c>
       <c r="B17" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14">
       <c r="A18" t="s">
         <v>1940</v>
       </c>
       <c r="B18" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14">
       <c r="A19" t="s">
         <v>1941</v>
       </c>
       <c r="B19" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14">
       <c r="A20" t="s">
         <v>1942</v>
       </c>
       <c r="B20" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14">
       <c r="A21" t="s">
         <v>1943</v>
       </c>
       <c r="B21" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14">
       <c r="A22" t="s">
         <v>1944</v>
       </c>
       <c r="B22" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14">
       <c r="A23" t="s">
         <v>1945</v>
       </c>
       <c r="B23" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14">
+      <c r="A24" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>1947</v>
       </c>
-      <c r="B24" t="s">
-        <v>1948</v>
+      <c r="C24" s="1" t="s">
+        <v>2150</v>
       </c>
     </row>
   </sheetData>
@@ -16460,28 +16664,28 @@
         <v>329</v>
       </c>
       <c r="D1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E1" t="s">
         <v>1949</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1950</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1951</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1952</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1953</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1954</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1955</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -16492,10 +16696,10 @@
         <v>1928</v>
       </c>
       <c r="C2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H2" t="s">
         <v>251</v>
@@ -16506,13 +16710,13 @@
         <v>37229</v>
       </c>
       <c r="B3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D3" t="s">
         <v>1963</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -16523,10 +16727,10 @@
         <v>1944</v>
       </c>
       <c r="C4" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D4" t="s">
         <v>1966</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -16537,13 +16741,13 @@
         <v>1942</v>
       </c>
       <c r="C5" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D5" t="s">
         <v>1959</v>
       </c>
-      <c r="D5" t="s">
-        <v>1960</v>
-      </c>
       <c r="H5" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -16554,10 +16758,10 @@
         <v>259</v>
       </c>
       <c r="C6" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D6" t="s">
         <v>1969</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -16565,13 +16769,13 @@
         <v>37233</v>
       </c>
       <c r="B7" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C7" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D7" t="s">
         <v>1973</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -16582,10 +16786,10 @@
         <v>1930</v>
       </c>
       <c r="C8" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D8" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -16596,13 +16800,13 @@
         <v>1919</v>
       </c>
       <c r="C9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="H9" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -16613,13 +16817,13 @@
         <v>1923</v>
       </c>
       <c r="C10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D10" t="s">
         <v>1910</v>
       </c>
       <c r="H10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -16630,10 +16834,10 @@
         <v>1915</v>
       </c>
       <c r="C11" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D11" t="s">
         <v>1976</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -16644,10 +16848,10 @@
         <v>259</v>
       </c>
       <c r="C12" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D12" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -16658,10 +16862,10 @@
         <v>1944</v>
       </c>
       <c r="C13" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D13" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -16678,7 +16882,7 @@
         <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -16700,13 +16904,13 @@
         <v>37232</v>
       </c>
       <c r="B16" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C16" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D16" t="s">
         <v>1982</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -16717,10 +16921,10 @@
         <v>1927</v>
       </c>
       <c r="C17" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D17" t="s">
         <v>1984</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -16734,10 +16938,10 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H18" t="s">
         <v>1986</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1987</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -16765,10 +16969,10 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="H20" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -16779,10 +16983,10 @@
         <v>1925</v>
       </c>
       <c r="C21" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D21" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -16793,10 +16997,10 @@
         <v>1916</v>
       </c>
       <c r="C22" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D22" t="s">
         <v>1976</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -16807,10 +17011,10 @@
         <v>1914</v>
       </c>
       <c r="C23" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D23" t="s">
         <v>1990</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -16838,10 +17042,10 @@
         <v>259</v>
       </c>
       <c r="C25" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D25" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H25" t="s">
         <v>62</v>
@@ -16855,10 +17059,10 @@
         <v>259</v>
       </c>
       <c r="C26" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D26" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H26" t="s">
         <v>179</v>
@@ -16869,13 +17073,13 @@
         <v>37226</v>
       </c>
       <c r="B27" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D27" t="s">
         <v>1996</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1997</v>
       </c>
       <c r="H27" t="s">
         <v>331</v>
@@ -16889,10 +17093,10 @@
         <v>1945</v>
       </c>
       <c r="C28" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D28" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -16900,13 +17104,13 @@
         <v>37231</v>
       </c>
       <c r="B29" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C29" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D29" t="s">
         <v>1999</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -16917,13 +17121,13 @@
         <v>1944</v>
       </c>
       <c r="C30" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D30" t="s">
         <v>1959</v>
       </c>
-      <c r="D30" t="s">
-        <v>1960</v>
-      </c>
       <c r="H30" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -16934,10 +17138,10 @@
         <v>259</v>
       </c>
       <c r="C31" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D31" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -16948,10 +17152,10 @@
         <v>1945</v>
       </c>
       <c r="C32" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D32" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -16979,10 +17183,10 @@
         <v>1943</v>
       </c>
       <c r="C34" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D34" t="s">
         <v>1966</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -16993,10 +17197,10 @@
         <v>1930</v>
       </c>
       <c r="C35" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D35" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -17007,10 +17211,10 @@
         <v>1943</v>
       </c>
       <c r="C36" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D36" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -17021,13 +17225,13 @@
         <v>1924</v>
       </c>
       <c r="C37" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D37" t="s">
         <v>1910</v>
       </c>
       <c r="H37" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -17041,10 +17245,10 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H38" t="s">
         <v>1986</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1987</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -17055,10 +17259,10 @@
         <v>1945</v>
       </c>
       <c r="C39" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D39" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -17069,10 +17273,10 @@
         <v>259</v>
       </c>
       <c r="C40" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D40" t="s">
         <v>2002</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -17080,13 +17284,13 @@
         <v>37223</v>
       </c>
       <c r="B41" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C41" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D41" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -17097,10 +17301,10 @@
         <v>1915</v>
       </c>
       <c r="C42" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D42" t="s">
         <v>2004</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2005</v>
       </c>
       <c r="H42" t="s">
         <v>393</v>
@@ -17114,10 +17318,10 @@
         <v>1930</v>
       </c>
       <c r="C43" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D43" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="J43" t="s">
         <v>332</v>
@@ -17131,10 +17335,10 @@
         <v>1928</v>
       </c>
       <c r="C44" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D44" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -17145,10 +17349,10 @@
         <v>1926</v>
       </c>
       <c r="C45" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D45" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -17159,10 +17363,10 @@
         <v>1925</v>
       </c>
       <c r="C46" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D46" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -17170,13 +17374,13 @@
         <v>37227</v>
       </c>
       <c r="B47" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C47" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D47" t="s">
         <v>2007</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -17187,10 +17391,10 @@
         <v>1939</v>
       </c>
       <c r="C48" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D48" t="s">
         <v>1984</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -17201,10 +17405,10 @@
         <v>1945</v>
       </c>
       <c r="C49" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D49" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -17215,10 +17419,10 @@
         <v>259</v>
       </c>
       <c r="C50" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D50" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H50" t="s">
         <v>158</v>
@@ -17232,7 +17436,7 @@
         <v>1915</v>
       </c>
       <c r="C51" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -17246,10 +17450,10 @@
         <v>1945</v>
       </c>
       <c r="C52" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D52" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H52" t="s">
         <v>251</v>
@@ -17263,10 +17467,10 @@
         <v>1915</v>
       </c>
       <c r="C53" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D53" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -17277,13 +17481,13 @@
         <v>1943</v>
       </c>
       <c r="C54" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D54" t="s">
         <v>1959</v>
       </c>
-      <c r="D54" t="s">
-        <v>1960</v>
-      </c>
       <c r="H54" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -17294,10 +17498,10 @@
         <v>1943</v>
       </c>
       <c r="C55" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D55" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -17308,13 +17512,13 @@
         <v>1915</v>
       </c>
       <c r="C56" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D56" t="s">
         <v>151</v>
       </c>
       <c r="H56" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -17325,10 +17529,10 @@
         <v>1913</v>
       </c>
       <c r="C57" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D57" t="s">
         <v>1976</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -17339,10 +17543,10 @@
         <v>259</v>
       </c>
       <c r="C58" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D58" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -17367,13 +17571,13 @@
         <v>1920</v>
       </c>
       <c r="C60" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D60" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="H60" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -17384,10 +17588,10 @@
         <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D61" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -17412,10 +17616,10 @@
         <v>1913</v>
       </c>
       <c r="C63" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D63" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -17432,7 +17636,7 @@
         <v>143</v>
       </c>
       <c r="H64" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -17446,10 +17650,10 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H65" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -17460,10 +17664,10 @@
         <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D66" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H66" t="s">
         <v>158</v>
@@ -17477,10 +17681,10 @@
         <v>1942</v>
       </c>
       <c r="C67" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D67" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -17505,10 +17709,10 @@
         <v>1944</v>
       </c>
       <c r="C69" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D69" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -17519,13 +17723,13 @@
         <v>1915</v>
       </c>
       <c r="C70" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D70" t="s">
         <v>1959</v>
       </c>
-      <c r="D70" t="s">
-        <v>1960</v>
-      </c>
       <c r="H70" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -17550,10 +17754,10 @@
         <v>259</v>
       </c>
       <c r="C72" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D72" t="s">
         <v>2019</v>
-      </c>
-      <c r="D72" t="s">
-        <v>2020</v>
       </c>
       <c r="H72" t="s">
         <v>331</v>
@@ -17564,13 +17768,13 @@
         <v>37228</v>
       </c>
       <c r="B73" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C73" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D73" t="s">
         <v>2021</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -17581,13 +17785,13 @@
         <v>1911</v>
       </c>
       <c r="C74" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D74" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="H74" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -17598,10 +17802,10 @@
         <v>259</v>
       </c>
       <c r="C75" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D75" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H75" t="s">
         <v>332</v>
@@ -17615,10 +17819,10 @@
         <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D76" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H76" t="s">
         <v>332</v>
@@ -17632,10 +17836,10 @@
         <v>1926</v>
       </c>
       <c r="C77" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D77" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -17646,10 +17850,10 @@
         <v>1928</v>
       </c>
       <c r="C78" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D78" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -17660,10 +17864,10 @@
         <v>259</v>
       </c>
       <c r="C79" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D79" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -17680,7 +17884,7 @@
         <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -17691,10 +17895,10 @@
         <v>259</v>
       </c>
       <c r="C81" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D81" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -17705,10 +17909,10 @@
         <v>259</v>
       </c>
       <c r="C82" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D82" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -17716,7 +17920,7 @@
         <v>37222</v>
       </c>
       <c r="B83" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C83" t="s">
         <v>43</v>
@@ -17730,13 +17934,13 @@
         <v>37230</v>
       </c>
       <c r="B84" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C84" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D84" t="s">
         <v>2027</v>
-      </c>
-      <c r="D84" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -17747,10 +17951,10 @@
         <v>259</v>
       </c>
       <c r="C85" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D85" t="s">
         <v>2029</v>
-      </c>
-      <c r="D85" t="s">
-        <v>2030</v>
       </c>
       <c r="H85" t="s">
         <v>331</v>
@@ -17767,10 +17971,10 @@
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H86" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -17795,10 +17999,10 @@
         <v>1942</v>
       </c>
       <c r="C88" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D88" t="s">
         <v>1966</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -17809,10 +18013,10 @@
         <v>238</v>
       </c>
       <c r="C89" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D89" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -17823,10 +18027,10 @@
         <v>1942</v>
       </c>
       <c r="C90" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D90" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -17837,13 +18041,13 @@
         <v>1921</v>
       </c>
       <c r="C91" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D91" t="s">
         <v>1959</v>
       </c>
-      <c r="D91" t="s">
-        <v>1960</v>
-      </c>
       <c r="H91" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -17854,13 +18058,13 @@
         <v>259</v>
       </c>
       <c r="C92" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D92" t="s">
         <v>242</v>
       </c>
       <c r="H92" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -17871,10 +18075,10 @@
         <v>259</v>
       </c>
       <c r="C93" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D93" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="H93" t="s">
         <v>158</v>
@@ -17905,10 +18109,10 @@
         <v>259</v>
       </c>
       <c r="C95" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D95" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="H95" t="s">
         <v>334</v>
@@ -17922,13 +18126,13 @@
         <v>1922</v>
       </c>
       <c r="C96" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D96" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="H96" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -17939,10 +18143,10 @@
         <v>259</v>
       </c>
       <c r="C97" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D97" t="s">
         <v>2037</v>
-      </c>
-      <c r="D97" t="s">
-        <v>2038</v>
       </c>
       <c r="H97" t="s">
         <v>332</v>
@@ -17953,13 +18157,13 @@
         <v>33691</v>
       </c>
       <c r="B98" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -17970,10 +18174,10 @@
         <v>259</v>
       </c>
       <c r="C99" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D99" t="s">
         <v>2040</v>
-      </c>
-      <c r="D99" t="s">
-        <v>2041</v>
       </c>
       <c r="H99" t="s">
         <v>158</v>
@@ -18001,10 +18205,10 @@
         <v>259</v>
       </c>
       <c r="C101" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D101" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="H101" t="s">
         <v>331</v>
@@ -18049,10 +18253,10 @@
         <v>1913</v>
       </c>
       <c r="C104" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D104" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -18063,10 +18267,10 @@
         <v>259</v>
       </c>
       <c r="C105" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D105" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="H105" t="s">
         <v>179</v>
@@ -18080,10 +18284,10 @@
         <v>1928</v>
       </c>
       <c r="C106" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D106" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -18094,10 +18298,10 @@
         <v>1928</v>
       </c>
       <c r="C107" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D107" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -18108,10 +18312,10 @@
         <v>1933</v>
       </c>
       <c r="C108" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D108" t="s">
         <v>1959</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1960</v>
       </c>
       <c r="H108" t="s">
         <v>294</v>
@@ -18139,171 +18343,171 @@
         <v>108</v>
       </c>
       <c r="B1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1" t="s">
         <v>2045</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2046</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2047</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2048</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2049</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B2" t="s">
         <v>2052</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2053</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B3" t="s">
         <v>2054</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2055</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B4" t="s">
         <v>2056</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B5" t="s">
         <v>2058</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B6" t="s">
         <v>2060</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B7" t="s">
         <v>2062</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B8" t="s">
         <v>2064</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B9" t="s">
         <v>2066</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2067</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B10" t="s">
         <v>2068</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2069</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B11" t="s">
         <v>2070</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2071</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B12" t="s">
         <v>2072</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B13" t="s">
         <v>2074</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B14" t="s">
         <v>2076</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B15" t="s">
         <v>2078</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B16" t="s">
         <v>2080</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B17" t="s">
         <v>2082</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B18" t="s">
         <v>2084</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2085</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B19" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B20" t="s">
         <v>1248</v>
@@ -18311,71 +18515,71 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B21" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B22" t="s">
         <v>2089</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2090</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B24" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B25" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B26" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B27" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B28" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B29" t="s">
         <v>1204</v>
@@ -18383,15 +18587,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B30" t="s">
         <v>2098</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2099</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B31" t="s">
         <v>1248</v>
@@ -18399,115 +18603,115 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B32" t="s">
         <v>2101</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2102</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
       </c>
       <c r="D33" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F33" t="s">
         <v>2103</v>
-      </c>
-      <c r="F33" t="s">
-        <v>2104</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
       </c>
       <c r="D34" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F34" t="s">
         <v>2105</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="D35" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F35" t="s">
         <v>2107</v>
-      </c>
-      <c r="F35" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B36" t="s">
         <v>2112</v>
       </c>
-      <c r="B36" t="s">
-        <v>2113</v>
-      </c>
       <c r="D36" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B37" t="s">
         <v>2114</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>2115</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>2116</v>
-      </c>
-      <c r="F37" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B38" t="s">
         <v>2118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>2119</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2120</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B39" t="s">
         <v>2121</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>2122</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>2123</v>
-      </c>
-      <c r="F39" t="s">
-        <v>2124</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B40" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
@@ -18515,7 +18719,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
